--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T08:07:04+00:00</t>
+    <t>2024-04-03T09:10:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1596,7 +1596,7 @@
     <t>Practitioner.qualification.issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization)
 </t>
   </si>
   <si>
@@ -1970,7 +1970,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="138.9140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="140.9453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T09:10:32+00:00</t>
+    <t>2024-04-03T10:16:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T10:16:46+00:00</t>
+    <t>2024-04-03T15:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T15:15:49+00:00</t>
+    <t>2024-04-03T16:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T16:22:44+00:00</t>
+    <t>2024-04-03T17:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-practitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$87</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3964" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="566">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T08:25:00+00:00</t>
+    <t>2024-04-04T09:30:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -717,7 +717,7 @@
 </t>
   </si>
   <si>
-    <t>idNat_PS (Professionnel) : Identification nationale du professionnel définie par le CI-SIS</t>
+    <t>An identifier for the person as this agent</t>
   </si>
   <si>
     <t>An identifier that applies to this person in this role.</t>
@@ -748,12 +748,30 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>Practitioner.identifier:idNatPs</t>
+  </si>
+  <si>
+    <t>idNatPs</t>
+  </si>
+  <si>
+    <t>Identifiant national des PS. Cet identifiant est notamment utilisé dans le cadre du DMP et de la CPS. Cet identifiant est préfixé selon source de provenance de l'identifiant (cf Annexe Transverse – Source des données métier pour les professionnels et les structures du CI-SIS.)</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:idNatPs.id</t>
+  </si>
+  <si>
     <t>Practitioner.identifier.id</t>
   </si>
   <si>
+    <t>Practitioner.identifier:idNatPs.extension</t>
+  </si>
+  <si>
     <t>Practitioner.identifier.extension</t>
   </si>
   <si>
+    <t>Practitioner.identifier:idNatPs.use</t>
+  </si>
+  <si>
     <t>Practitioner.identifier.use</t>
   </si>
   <si>
@@ -779,6 +797,9 @@
   </si>
   <si>
     <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:idNatPs.type</t>
   </si>
   <si>
     <t>Practitioner.identifier.type</t>
@@ -788,344 +809,17 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.id</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a OID that describes a set values that are unique.
-the namespace for the practitioner identifier value is fixed in France.
-Pour un PS identifié à partir de sa carte CPS, OID = 1.2.250.1.71.4.2.1
-Pour un employé identifié au sein de sa structure, OID de l'établissement, branche de gestion des employés ou http://hopitalTest.fr/fhir/namingsystem/employes</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.250.1.71.4.2.1</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:idNatPs</t>
-  </si>
-  <si>
-    <t>idNatPs</t>
-  </si>
-  <si>
-    <t>Identifiant national des PS. Cet identifiant est notamment utilisé dans le cadre du DMP et de la CPS. Cet identifiant est préfixé selon source de provenance de l'identifiant (cf Annexe Transverse – Source des données métier pour les professionnels et les structures du CI-SIS.)</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:idNatPs.id</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:idNatPs.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:idNatPs.use</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:idNatPs.type</t>
-  </si>
-  <si>
     <t>Type d’identifiant national de la personne physique (typeIdNat_PP),
 Les codes ADELI, RPPS et IDNPS proviennent du system  http://interopsante.org/fhir/CodeSystem/fr-v2-0203 ; Les codes 1, 3, 4, 5, 6 proviennent du system : https://mos.esante.gouv.fr/NOS/TRE_G08-TypeIdentifiantPersonne/FHIR/TRE-G08-TypeIdentifiantPersonne</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1142,25 +836,138 @@
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
     <t>Practitioner.identifier:idNatPs.system</t>
   </si>
   <si>
+    <t>Practitioner.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.250.1.71.4.2.1</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
     <t>Practitioner.identifier:idNatPs.value</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.value</t>
   </si>
   <si>
     <t>Identifiant national de la personne physique. 0 + ADELI ou 8 + RPPSidPP,
  Personne/Identifiant PP si l’instance correspond à un identifiant RPPS ou ADELI, sinon Personne/identification nationale PP.</t>
   </si>
   <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
     <t>Practitioner.identifier:idNatPs.period</t>
   </si>
   <si>
+    <t>Practitioner.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
     <t>Practitioner.identifier:idNatPs.assigner</t>
   </si>
   <si>
+    <t>Practitioner.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
     <t>Practitioner.identifier:rpps</t>
   </si>
   <si>
@@ -1180,6 +987,9 @@
   </si>
   <si>
     <t>Practitioner.identifier:rpps.type</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1199,6 +1009,9 @@
     <t>Practitioner.identifier:rpps.value</t>
   </si>
   <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
     <t>Practitioner.identifier:rpps.period</t>
   </si>
   <si>
@@ -1250,6 +1063,10 @@
   </si>
   <si>
     <t>Practitioner.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
   </si>
   <si>
     <t>Whether this practitioner's record is in active use</t>
@@ -2282,7 +2099,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO106"/>
+  <dimension ref="A1:AO87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2292,7 +2109,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="63.25390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.38671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="34.48828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -2310,7 +2127,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="45.10546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -4925,10 +4742,10 @@
         <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>77</v>
@@ -5031,39 +4848,43 @@
         <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -5111,53 +4932,53 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -5169,17 +4990,15 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -5216,31 +5035,31 @@
         <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
@@ -5260,46 +5079,44 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>113</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -5323,52 +5140,52 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>119</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>244</v>
+        <v>109</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5379,10 +5196,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5399,25 +5216,25 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -5442,11 +5259,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -5464,7 +5283,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5482,10 +5301,10 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5496,10 +5315,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5519,19 +5338,23 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>105</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5540,7 +5363,7 @@
         <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>77</v>
@@ -5555,13 +5378,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5579,7 +5402,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5591,16 +5414,16 @@
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5611,21 +5434,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -5634,21 +5457,23 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>114</v>
+        <v>266</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5657,10 +5482,10 @@
         <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>77</v>
@@ -5684,43 +5509,43 @@
         <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>119</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>77</v>
@@ -5728,10 +5553,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5742,7 +5567,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5754,20 +5579,18 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5779,7 +5602,7 @@
         <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>77</v>
@@ -5815,13 +5638,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -5833,13 +5656,13 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>77</v>
@@ -5847,10 +5670,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5870,16 +5693,16 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>105</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>106</v>
+        <v>288</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>107</v>
+        <v>289</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5930,7 +5753,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>108</v>
+        <v>290</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5942,19 +5765,19 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>109</v>
+        <v>292</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>77</v>
@@ -5962,21 +5785,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5985,19 +5808,19 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>112</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>113</v>
+        <v>297</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>114</v>
+        <v>298</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>115</v>
+        <v>299</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6035,43 +5858,43 @@
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>119</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>109</v>
+        <v>302</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>77</v>
@@ -6079,12 +5902,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
       </c>
@@ -6093,7 +5918,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -6105,19 +5930,17 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -6130,7 +5953,7 @@
         <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>77</v>
@@ -6166,13 +5989,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -6184,24 +6007,24 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6221,20 +6044,18 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>105</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
+        <v>106</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -6283,7 +6104,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>279</v>
+        <v>108</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6295,16 +6116,16 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>281</v>
+        <v>109</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -6315,21 +6136,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -6338,21 +6159,21 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>113</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -6388,40 +6209,40 @@
         <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>119</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>288</v>
+        <v>109</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6432,10 +6253,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6452,23 +6273,25 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -6493,13 +6316,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -6517,7 +6340,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6535,10 +6358,10 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>294</v>
+        <v>201</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6549,10 +6372,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6575,19 +6398,19 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6597,7 +6420,7 @@
         <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>77</v>
@@ -6612,13 +6435,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6636,7 +6459,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6654,10 +6477,10 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6668,10 +6491,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6694,19 +6517,19 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6716,10 +6539,10 @@
         <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>77</v>
@@ -6755,7 +6578,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6773,13 +6596,13 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>77</v>
@@ -6787,10 +6610,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6798,7 +6621,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>89</v>
@@ -6813,20 +6636,18 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6835,10 +6656,10 @@
         <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>77</v>
@@ -6874,7 +6695,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6892,13 +6713,13 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>77</v>
@@ -6906,10 +6727,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6917,7 +6738,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
@@ -6932,17 +6753,15 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>105</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6955,7 +6774,7 @@
         <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>77</v>
@@ -6991,7 +6810,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7009,13 +6828,13 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>77</v>
@@ -7023,10 +6842,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7049,15 +6868,17 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -7106,7 +6927,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7124,13 +6945,13 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>77</v>
@@ -7138,12 +6959,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
@@ -7152,7 +6975,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -7164,18 +6987,18 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>342</v>
+        <v>223</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -7223,13 +7046,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>346</v>
+        <v>222</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -7241,28 +7064,26 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>347</v>
+        <v>230</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>348</v>
+        <v>231</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>349</v>
+        <v>232</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>77</v>
       </c>
@@ -7280,21 +7101,19 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>352</v>
+        <v>106</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -7342,53 +7161,53 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -7400,15 +7219,17 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -7445,31 +7266,31 @@
         <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -7489,44 +7310,46 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>113</v>
+        <v>243</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>114</v>
+        <v>244</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7550,52 +7373,52 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>119</v>
+        <v>249</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7606,10 +7429,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7626,25 +7449,25 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7654,7 +7477,7 @@
         <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>77</v>
@@ -7669,13 +7492,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -7693,7 +7516,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7711,10 +7534,10 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7725,10 +7548,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7751,19 +7574,19 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>357</v>
+        <v>265</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7773,10 +7596,10 @@
         <v>77</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>77</v>
@@ -7788,13 +7611,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -7812,7 +7635,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7830,13 +7653,13 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>77</v>
@@ -7844,10 +7667,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7870,20 +7693,18 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>362</v>
+        <v>278</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7892,10 +7713,10 @@
         <v>77</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>77</v>
@@ -7931,7 +7752,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7949,13 +7770,13 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>77</v>
@@ -7963,10 +7784,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7989,17 +7810,15 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>105</v>
+        <v>287</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>364</v>
+        <v>288</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -8012,7 +7831,7 @@
         <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>77</v>
@@ -8048,7 +7867,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8066,13 +7885,13 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>77</v>
@@ -8080,10 +7899,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8106,15 +7925,17 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -8163,7 +7984,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8181,13 +8002,13 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>77</v>
@@ -8195,10 +8016,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8221,22 +8042,26 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="R51" t="s" s="2">
         <v>77</v>
       </c>
@@ -8280,7 +8105,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8298,28 +8123,26 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>77</v>
       </c>
@@ -8328,7 +8151,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -8337,20 +8160,22 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>223</v>
+        <v>342</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>226</v>
+        <v>346</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -8399,7 +8224,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>222</v>
+        <v>341</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8408,7 +8233,7 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>102</v>
@@ -8417,24 +8242,24 @@
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>230</v>
+        <v>347</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>231</v>
+        <v>348</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>232</v>
+        <v>349</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>234</v>
+        <v>350</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8546,10 +8371,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>235</v>
+        <v>351</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8663,12 +8488,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8683,26 +8510,22 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>354</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8726,13 +8549,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8750,28 +8573,28 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>243</v>
+        <v>119</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8782,10 +8605,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>245</v>
+        <v>357</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8802,25 +8625,25 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>248</v>
+        <v>359</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8830,7 +8653,7 @@
         <v>77</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>77</v>
@@ -8845,13 +8668,11 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8869,7 +8690,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>252</v>
+        <v>363</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8887,13 +8708,13 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>253</v>
+        <v>364</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>244</v>
+        <v>365</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>77</v>
@@ -8901,10 +8722,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8927,19 +8748,19 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8949,10 +8770,10 @@
         <v>77</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>77</v>
@@ -8988,7 +8809,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9006,13 +8827,13 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>77</v>
@@ -9020,14 +8841,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9049,13 +8870,13 @@
         <v>105</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9069,7 +8890,7 @@
         <v>77</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>77</v>
@@ -9105,7 +8926,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9123,13 +8944,13 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>77</v>
@@ -9137,21 +8958,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -9163,15 +8984,17 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>334</v>
+        <v>105</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -9220,13 +9043,13 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
@@ -9238,13 +9061,13 @@
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>77</v>
@@ -9252,10 +9075,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9269,7 +9092,7 @@
         <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>77</v>
@@ -9278,17 +9101,15 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>342</v>
+        <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -9313,13 +9134,11 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -9337,13 +9156,13 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
@@ -9352,16 +9171,16 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>77</v>
@@ -9369,14 +9188,12 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>77</v>
       </c>
@@ -9385,7 +9202,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -9397,18 +9214,16 @@
         <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>225</v>
+        <v>404</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -9432,13 +9247,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -9456,7 +9271,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>222</v>
+        <v>407</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9474,24 +9289,24 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>230</v>
+        <v>408</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>231</v>
+        <v>409</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>234</v>
+        <v>410</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9511,19 +9326,21 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>105</v>
+        <v>287</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>106</v>
+        <v>411</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>107</v>
+        <v>412</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9571,7 +9388,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>108</v>
+        <v>414</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9583,19 +9400,19 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>109</v>
+        <v>416</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>77</v>
@@ -9603,14 +9420,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>235</v>
+        <v>417</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9620,7 +9437,7 @@
         <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>77</v>
@@ -9629,18 +9446,20 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>112</v>
+        <v>418</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>113</v>
+        <v>419</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>114</v>
+        <v>420</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9676,19 +9495,19 @@
         <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>119</v>
+        <v>417</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9697,22 +9516,22 @@
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>120</v>
+        <v>423</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>109</v>
+        <v>426</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>77</v>
@@ -9720,10 +9539,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>236</v>
+        <v>428</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9740,26 +9559,22 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9783,13 +9598,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -9807,7 +9622,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9819,16 +9634,16 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>244</v>
+        <v>109</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9839,10 +9654,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>245</v>
+        <v>429</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9850,10 +9665,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>430</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9862,23 +9677,19 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9887,7 +9698,7 @@
         <v>77</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>77</v>
@@ -9902,52 +9713,52 @@
         <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9958,12 +9769,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9981,23 +9794,19 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>134</v>
+        <v>433</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>314</v>
+        <v>434</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
       </c>
@@ -10006,10 +9815,10 @@
         <v>77</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>77</v>
@@ -10045,31 +9854,31 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>320</v>
+        <v>119</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>77</v>
@@ -10077,43 +9886,43 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="D67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>105</v>
+        <v>438</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>325</v>
+        <v>439</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -10126,7 +9935,7 @@
         <v>77</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>77</v>
@@ -10162,31 +9971,31 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>329</v>
+        <v>119</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>77</v>
@@ -10194,12 +10003,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
       </c>
@@ -10211,22 +10022,22 @@
         <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>334</v>
+        <v>443</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>335</v>
+        <v>444</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>336</v>
+        <v>445</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10277,31 +10088,31 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>337</v>
+        <v>119</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>77</v>
@@ -10309,43 +10120,43 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="D69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>342</v>
+        <v>448</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>343</v>
+        <v>449</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -10394,31 +10205,31 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>346</v>
+        <v>119</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>77</v>
@@ -10426,10 +10237,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10437,7 +10248,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>89</v>
@@ -10452,26 +10263,20 @@
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>297</v>
+        <v>178</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q70" t="s" s="2">
-        <v>398</v>
-      </c>
+      <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
         <v>77</v>
       </c>
@@ -10491,13 +10296,13 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
@@ -10515,7 +10320,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10524,7 +10329,7 @@
         <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>457</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>102</v>
@@ -10533,24 +10338,24 @@
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>77</v>
+        <v>458</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>77</v>
+        <v>460</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10558,34 +10363,34 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>402</v>
+        <v>105</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -10634,31 +10439,31 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>401</v>
+        <v>466</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>77</v>
+        <v>467</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>409</v>
+        <v>284</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>77</v>
@@ -10666,10 +10471,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10686,22 +10491,26 @@
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>106</v>
+        <v>471</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10725,13 +10534,13 @@
         <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
@@ -10749,7 +10558,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>108</v>
+        <v>477</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10761,19 +10570,19 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>77</v>
+        <v>478</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>109</v>
+        <v>365</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>77</v>
@@ -10781,21 +10590,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -10804,19 +10613,19 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>112</v>
+        <v>481</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>113</v>
+        <v>482</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>114</v>
+        <v>483</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>115</v>
+        <v>484</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10854,37 +10663,37 @@
         <v>77</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>119</v>
+        <v>485</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>109</v>
@@ -10898,14 +10707,12 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>412</v>
+        <v>486</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10923,16 +10730,16 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>414</v>
+        <v>287</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>415</v>
+        <v>487</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>416</v>
+        <v>488</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10983,31 +10790,31 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>119</v>
+        <v>489</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>77</v>
@@ -11015,10 +10822,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>417</v>
+        <v>490</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>417</v>
+        <v>490</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11029,31 +10836,31 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>178</v>
+        <v>491</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>418</v>
+        <v>492</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>419</v>
+        <v>493</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -11078,11 +10885,13 @@
         <v>77</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y75" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z75" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>77</v>
@@ -11100,16 +10909,16 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>423</v>
+        <v>490</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>102</v>
@@ -11118,13 +10927,13 @@
         <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>424</v>
+        <v>496</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>425</v>
+        <v>497</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>426</v>
+        <v>498</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>77</v>
@@ -11132,10 +10941,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>427</v>
+        <v>499</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>427</v>
+        <v>499</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11158,19 +10967,17 @@
         <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -11195,13 +11002,13 @@
         <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>77</v>
+        <v>503</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>77</v>
+        <v>504</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
@@ -11219,7 +11026,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>432</v>
+        <v>499</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11237,13 +11044,13 @@
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>433</v>
+        <v>505</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>434</v>
+        <v>506</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>77</v>
+        <v>507</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>77</v>
@@ -11251,14 +11058,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>435</v>
+        <v>508</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>435</v>
+        <v>508</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11277,18 +11084,18 @@
         <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>105</v>
+        <v>509</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>437</v>
+        <v>510</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>77</v>
       </c>
@@ -11336,7 +11143,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>440</v>
+        <v>508</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11354,13 +11161,13 @@
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>441</v>
+        <v>513</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>442</v>
+        <v>514</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>443</v>
+        <v>515</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>77</v>
@@ -11368,14 +11175,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>444</v>
+        <v>516</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>444</v>
+        <v>516</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11391,21 +11198,21 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>105</v>
+        <v>517</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>446</v>
+        <v>518</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
       </c>
@@ -11453,7 +11260,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>449</v>
+        <v>516</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11471,13 +11278,13 @@
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>450</v>
+        <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>451</v>
+        <v>521</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>452</v>
+        <v>522</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>77</v>
@@ -11485,10 +11292,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>453</v>
+        <v>523</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>453</v>
+        <v>523</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11499,25 +11306,25 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>105</v>
+        <v>524</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>454</v>
+        <v>525</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>455</v>
+        <v>526</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11544,11 +11351,13 @@
         <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z79" t="s" s="2">
-        <v>456</v>
+        <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>77</v>
@@ -11566,7 +11375,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11581,16 +11390,16 @@
         <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>458</v>
+        <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>77</v>
@@ -11598,10 +11407,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11612,7 +11421,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
@@ -11621,16 +11430,16 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>105</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>463</v>
+        <v>106</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>464</v>
+        <v>107</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11657,13 +11466,13 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>466</v>
+        <v>77</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
@@ -11681,28 +11490,28 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>467</v>
+        <v>108</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>468</v>
+        <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>469</v>
+        <v>109</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>77</v>
@@ -11713,21 +11522,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -11736,21 +11545,21 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>334</v>
+        <v>112</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>471</v>
+        <v>113</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11798,31 +11607,31 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>474</v>
+        <v>119</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>476</v>
+        <v>109</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>77</v>
@@ -11830,14 +11639,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11847,28 +11656,28 @@
         <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I82" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J82" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>478</v>
+        <v>112</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>481</v>
+        <v>115</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>482</v>
+        <v>220</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>77</v>
@@ -11917,7 +11726,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>477</v>
+        <v>536</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11926,22 +11735,22 @@
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>483</v>
+        <v>120</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>484</v>
+        <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>485</v>
+        <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>486</v>
+        <v>201</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>487</v>
+        <v>77</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>77</v>
@@ -11949,10 +11758,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11963,7 +11772,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
@@ -11975,16 +11784,18 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>106</v>
+        <v>538</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>107</v>
+        <v>539</v>
       </c>
       <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
       </c>
@@ -12032,19 +11843,19 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>108</v>
+        <v>537</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>77</v>
@@ -12053,7 +11864,7 @@
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>109</v>
+        <v>541</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -12064,10 +11875,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12075,10 +11886,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>490</v>
+        <v>89</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>77</v>
@@ -12090,13 +11901,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>203</v>
+        <v>543</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>204</v>
+        <v>544</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12123,43 +11934,41 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>77</v>
+        <v>545</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>119</v>
+        <v>542</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>77</v>
@@ -12168,10 +11977,10 @@
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>77</v>
+        <v>528</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>77</v>
+        <v>546</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>77</v>
@@ -12179,14 +11988,12 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
         <v>77</v>
       </c>
@@ -12207,16 +12014,18 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>493</v>
+        <v>287</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
       </c>
@@ -12264,19 +12073,19 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>119</v>
+        <v>547</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
@@ -12285,10 +12094,10 @@
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>77</v>
+        <v>551</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>77</v>
+        <v>552</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>77</v>
@@ -12296,26 +12105,24 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>77</v>
@@ -12324,13 +12131,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12381,19 +12188,19 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>119</v>
+        <v>553</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>77</v>
@@ -12402,7 +12209,7 @@
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>77</v>
+        <v>557</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -12413,14 +12220,12 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
         <v>77</v>
       </c>
@@ -12429,10 +12234,10 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>77</v>
@@ -12441,16 +12246,20 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>503</v>
+        <v>253</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>77</v>
       </c>
@@ -12474,13 +12283,13 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>77</v>
@@ -12498,7 +12307,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>119</v>
+        <v>558</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12510,2245 +12319,26 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>77</v>
+        <v>563</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>77</v>
+        <v>564</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>77</v>
+        <v>565</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="D88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="P91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="P95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="P96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="P101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="P102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y103" s="2"/>
-      <c r="Z103" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="P104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="P106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AO106" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO106">
+  <autoFilter ref="A1:AO87">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14758,7 +12348,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI105">
+  <conditionalFormatting sqref="A2:AI86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
